--- a/xlsx/圣安德烈亚斯断层_intext.xlsx
+++ b/xlsx/圣安德烈亚斯断层_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%9D%BF%E5%A1%8A</t>
   </si>
   <si>
-    <t>太平洋板塊</t>
+    <t>太平洋板块</t>
   </si>
   <si>
     <t>政策_政策_加州_圣安德烈亚斯断层</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2%E6%9D%BF%E5%A1%8A</t>
   </si>
   <si>
-    <t>北美洲板塊</t>
+    <t>北美洲板块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B7%E5%B1%A4</t>
   </si>
   <si>
-    <t>斷層</t>
+    <t>断层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%B0%8F%E9%9C%87%E7%BA%A7</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/1906%E5%B9%B4%E8%88%8A%E9%87%91%E5%B1%B1%E5%A4%A7%E5%9C%B0%E9%9C%87</t>
   </si>
   <si>
-    <t>1906年舊金山大地震</t>
+    <t>1906年旧金山大地震</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%AD%AF%E6%96%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>聖克魯斯山脈</t>
+    <t>圣克鲁斯山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%B0%E9%9C%87_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>大地震 (電影)</t>
+    <t>大地震 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%9C%B0%E9%9C%87</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
